--- a/parameter_files/base/dt_dh.xlsx
+++ b/parameter_files/base/dt_dh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{FA93F119-E56B-4702-A3A6-2FCEC49B51E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED989B15-DE8A-4249-9798-8630601937C6}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{FA93F119-E56B-4702-A3A6-2FCEC49B51E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F766CD86-FD64-48D1-BD61-A9D5589E0784}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{89E629D4-49B3-4DE5-805D-6F309838F52B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{89E629D4-49B3-4DE5-805D-6F309838F52B}"/>
   </bookViews>
   <sheets>
     <sheet name="lower" sheetId="2" r:id="rId1"/>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AE21FD-46D5-4C39-8599-9FC222EA7C8F}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -644,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562BDEC8-66AD-483B-978E-ED201577D924}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -661,149 +661,149 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
